--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1278.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1278.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8566092491916795</v>
+        <v>1.128864169120789</v>
       </c>
       <c r="B1">
-        <v>1.556543003941184</v>
+        <v>2.098086357116699</v>
       </c>
       <c r="C1">
-        <v>5.38233680204466</v>
+        <v>10.04667663574219</v>
       </c>
       <c r="D1">
-        <v>3.683191225520273</v>
+        <v>2.500462055206299</v>
       </c>
       <c r="E1">
-        <v>1.484377571641567</v>
+        <v>1.298213124275208</v>
       </c>
     </row>
   </sheetData>
